--- a/sna-intro/data/scholar-nodes.xlsx
+++ b/sna-intro/data/scholar-nodes.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LASER/network-analysis/sna-intro/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbkellog/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LASER/network-analysis/sna-intro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BC51FE-3CA9-A74F-AD41-5D2733B80DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F2CFE3-62AA-E64B-A2D4-D13E1D737DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14400"/>
+    <workbookView xWindow="540" yWindow="1200" windowWidth="26340" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="scholar-nodes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'scholar-nodes'!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
-  <si>
-    <t>name </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>attribute</t>
   </si>
@@ -97,9 +110,6 @@
     <t>Fei Gao</t>
   </si>
   <si>
-    <t>Hauma</t>
-  </si>
-  <si>
     <t>Hongwei Yu</t>
   </si>
   <si>
@@ -145,9 +155,6 @@
     <t>Megan Atha</t>
   </si>
   <si>
-    <t>Malinda Whitford</t>
-  </si>
-  <si>
     <t>Mia Williams</t>
   </si>
   <si>
@@ -200,6 +207,18 @@
   </si>
   <si>
     <t>Zhen Xu</t>
+  </si>
+  <si>
+    <t>Jeanne McClure</t>
+  </si>
+  <si>
+    <t>conferences</t>
+  </si>
+  <si>
+    <t>Melinda Whitford</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1042,162 +1061,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1205,250 +1222,255 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B50">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sna-intro/data/scholar-nodes.xlsx
+++ b/sna-intro/data/scholar-nodes.xlsx
@@ -5,38 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbkellog/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LASER/network-analysis/sna-intro/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LASER/network-analysis/sna-intro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F2CFE3-62AA-E64B-A2D4-D13E1D737DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BC51FE-3CA9-A74F-AD41-5D2733B80DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1200" windowWidth="26340" windowHeight="15760"/>
+    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="scholar-nodes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'scholar-nodes'!$A$1:$B$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+  <si>
+    <t>name </t>
+  </si>
   <si>
     <t>attribute</t>
   </si>
@@ -110,6 +97,9 @@
     <t>Fei Gao</t>
   </si>
   <si>
+    <t>Hauma</t>
+  </si>
+  <si>
     <t>Hongwei Yu</t>
   </si>
   <si>
@@ -155,6 +145,9 @@
     <t>Megan Atha</t>
   </si>
   <si>
+    <t>Malinda Whitford</t>
+  </si>
+  <si>
     <t>Mia Williams</t>
   </si>
   <si>
@@ -207,18 +200,6 @@
   </si>
   <si>
     <t>Zhen Xu</t>
-  </si>
-  <si>
-    <t>Jeanne McClure</t>
-  </si>
-  <si>
-    <t>conferences</t>
-  </si>
-  <si>
-    <t>Melinda Whitford</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1061,160 +1042,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,255 +1205,250 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B50">
-      <sortCondition ref="A1:A50"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>